--- a/temp/UserBalances.xlsx
+++ b/temp/UserBalances.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -367,26 +367,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>10809789</v>
+        <v>11111111</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>10809788</v>
-      </c>
-      <c r="B3">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10.01</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
